--- a/NBIS.xlsx
+++ b/NBIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugene.limyj\Desktop\Finance Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed04691dbd909eac/Desktop/Model/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AE3E78-8B11-4A72-AA2F-71F9E1C40501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{36AE3E78-8B11-4A72-AA2F-71F9E1C40501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CAF8B88-739E-4CDD-B65A-9AFF41E5C24F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Price</t>
   </si>
@@ -57,9 +57,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>as of 29/1/25</t>
-  </si>
-  <si>
     <t>In Mil</t>
   </si>
   <si>
@@ -121,6 +118,27 @@
   </si>
   <si>
     <t>Nebius Group</t>
+  </si>
+  <si>
+    <t>Q4 24</t>
+  </si>
+  <si>
+    <t>Q1 25</t>
+  </si>
+  <si>
+    <t>as of 15/5/25</t>
+  </si>
+  <si>
+    <t>Investment Income</t>
+  </si>
+  <si>
+    <t>Gross margin</t>
+  </si>
+  <si>
+    <t>Revenue growth</t>
+  </si>
+  <si>
+    <t>Profit margin</t>
   </si>
 </sst>
 </file>
@@ -156,9 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,6 +194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,76 +466,76 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.38</v>
+        <v>35.82</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>235.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>202.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="1">
         <f>M2*M3</f>
-        <v>7152.9709999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7250.3261999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="1">
-        <v>2288.1999999999998</v>
+        <v>2449.6</v>
       </c>
       <c r="N5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1">
         <f>M4-M5+M6</f>
-        <v>4864.7709999999997</v>
+        <v>4806.8261999999995</v>
       </c>
     </row>
   </sheetData>
@@ -521,106 +545,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67699179-7FC7-42D4-828C-835EFF769EE9}">
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="R12" sqref="R12:R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>4.7</v>
+      </c>
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>6.7</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>24.9</v>
+      </c>
       <c r="I3" s="1">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>5.9</v>
+      </c>
       <c r="E4" s="1">
         <v>7.5</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>18.100000000000001</v>
+      </c>
       <c r="I4" s="1">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
-        <f>C3-C4</f>
+        <f t="shared" ref="C5:K5" si="0">C3-C4</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>D3-D4</f>
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.1000000000000005</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <f>E3-E4</f>
-        <v>-2.5</v>
-      </c>
-      <c r="F5" s="1">
-        <f>F3-F4</f>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <f>G3-G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>H3-H4</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>I3-I4</f>
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -628,74 +729,162 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>42</v>
+      </c>
       <c r="E7" s="1">
         <v>43.5</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>54.7</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>83</v>
+      </c>
       <c r="I7" s="1">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>90</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>28.7</v>
+      </c>
       <c r="E8" s="1">
         <v>25.5</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>27.4</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>34.700000000000003</v>
+      </c>
       <c r="I8" s="1">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>6.5</v>
+      </c>
       <c r="E9" s="1">
         <v>6.1</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>11.5</v>
+      </c>
       <c r="I9" s="1">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
-        <f>C5-C7-C8-C9</f>
+        <f t="shared" ref="C10:K10" si="1">C5-C7-C8-C9</f>
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <f>D5-D7-D8-D9</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-78.400000000000006</v>
       </c>
       <c r="E10" s="1">
-        <f>E5-E7-E8-E9</f>
+        <f t="shared" si="1"/>
         <v>-77.599999999999994</v>
       </c>
       <c r="F10" s="1">
-        <f>F5-F7-F8-F9</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-93.5</v>
       </c>
       <c r="G10" s="1">
         <f>G5-G7-G8-G9</f>
@@ -703,14 +892,36 @@
       </c>
       <c r="H10" s="1">
         <f>H5-H7-H8-H9</f>
+        <v>-122.4</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>-87</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>-151.19999999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f>I5-I7-I8-I9</f>
-        <v>-87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -718,88 +929,368 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1">
         <v>0.5</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>0.6</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>12.7</v>
+      </c>
       <c r="I12" s="1">
         <v>28.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>-1.4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-7.7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>-14.7</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-8.4</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <f>-9.8-7.7</f>
-        <v>-17.5</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <f>0.4+6.8</f>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1">
-        <f>C10+C12+C13-C14</f>
+      <c r="C16" s="1">
+        <f>C10+C12+C13+C14-C15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <f>D10+D12+D13-D14</f>
+      <c r="D16" s="1">
+        <f>D10+D12+D13+D14-D15</f>
+        <v>-74.300000000000011</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E10+E12+E13+E14-E15</f>
+        <v>-96.8</v>
+      </c>
+      <c r="F16" s="1">
+        <f>F10+F12+F13+F14-F15</f>
+        <v>-89.300000000000011</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G10+G12+G13+G14-G15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <f>E10+E12+E13-E14</f>
-        <v>-96.8</v>
-      </c>
-      <c r="F15" s="1">
-        <f>F10+F12+F13-F14</f>
+      <c r="H16" s="1">
+        <f>H10+H12+H13+H14-H15</f>
+        <v>-39.300000000000004</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I10+I12+I13+I14-I15</f>
+        <v>-51.800000000000004</v>
+      </c>
+      <c r="J16" s="1">
+        <f>J10+J12+J13+J14-J15</f>
+        <v>-136.6</v>
+      </c>
+      <c r="K16" s="1">
+        <f>K10+K12+K13+K14-K15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="1">
-        <f>G10+G12+G13-G14</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>H10+H12+H13-H14</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>I10+I12+I13-I14</f>
-        <v>-51.8</v>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="e">
+        <f>C5/C3*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="3">
+        <f>D5/D3*100%</f>
+        <v>-0.25531914893617025</v>
+      </c>
+      <c r="E18" s="3">
+        <f>E5/E3*100%</f>
+        <v>-0.5</v>
+      </c>
+      <c r="F18" s="3">
+        <f>F5/F3*100%</f>
+        <v>-0.46268656716417916</v>
+      </c>
+      <c r="G18" s="3" t="e">
+        <f>G5/G3*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="3">
+        <f>H5/H3*100%</f>
+        <v>0.27309236947791155</v>
+      </c>
+      <c r="I18" s="3">
+        <f>I5/I3*100%</f>
+        <v>0.56351039260969982</v>
+      </c>
+      <c r="J18" s="3">
+        <f>J5/J3*100%</f>
+        <v>0.27440633245382584</v>
+      </c>
+      <c r="K18" s="3" t="e">
+        <f>K5/K3*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="3" t="e">
+        <f>L5/L3*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="e">
+        <f>(D3/C3)-100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="3">
+        <f>(E3/D3)-100%</f>
+        <v>6.3829787234042534E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <f>(F3/E3)-100%</f>
+        <v>0.34000000000000008</v>
+      </c>
+      <c r="G19" s="3">
+        <f>(G3/F3)-100%</f>
+        <v>-1</v>
+      </c>
+      <c r="H19" s="3" t="e">
+        <f>(H3/G3)-100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="3">
+        <f>(I3/H3)-100%</f>
+        <v>0.73895582329317278</v>
+      </c>
+      <c r="J19" s="3">
+        <f>(J3/I3)-100%</f>
+        <v>-0.12471131639722866</v>
+      </c>
+      <c r="K19" s="3">
+        <f>(K3/J3)-100%</f>
+        <v>-1</v>
+      </c>
+      <c r="L19" s="3" t="e">
+        <f>(L3/K3)-100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="e">
+        <f>C16/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="3">
+        <f>D16/D3</f>
+        <v>-15.808510638297873</v>
+      </c>
+      <c r="E20" s="3">
+        <f>E16/E3</f>
+        <v>-19.36</v>
+      </c>
+      <c r="F20" s="3">
+        <f>F16/F3</f>
+        <v>-13.328358208955224</v>
+      </c>
+      <c r="G20" s="3" t="e">
+        <f>G16/G3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="3">
+        <f>H16/H3</f>
+        <v>-1.5783132530120485</v>
+      </c>
+      <c r="I20" s="3">
+        <f>I16/I3</f>
+        <v>-1.1963048498845268</v>
+      </c>
+      <c r="J20" s="3">
+        <f>J16/J3</f>
+        <v>-3.604221635883905</v>
+      </c>
+      <c r="K20" s="3" t="e">
+        <f>K16/K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="3" t="e">
+        <f>L16/L3</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
